--- a/StructureDefinition-ext-R5-MeasureReport.gro.linkId.xlsx
+++ b/StructureDefinition-ext-R5-MeasureReport.gro.linkId.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `MeasureReport.group.linkId` 0..1 `string`
 Following are the generation technical comments:
-Element `MeasureReport.group.linkId` is mapped to FHIR R4 structure `MeasureReport`, but has no target element specified.</t>
+Element `MeasureReport.group.linkId` is will have a context of MeasureReport.group based on following the parent source element upwards and mapping to `MeasureReport`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:MeasureReport.group</t>
   </si>
   <si>
     <t>ID</t>
